--- a/files_for_lab/anova_lab_data.xlsx
+++ b/files_for_lab/anova_lab_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshuaggarwal/data/01-lesson_plans/07-unit_adv_stats_feature_selecftion_Trees_ensemble_methods/7.05_/lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A73547\Ironhack\Unit-7\lab-inferential-statistics-anova\files_for_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BCEDA-F489-CF4E-91D8-0E2205FE340A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB07FE2C-3D18-4FEC-B4A2-977C8F24D1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2300" windowWidth="21900" windowHeight="12940" xr2:uid="{49703896-377D-AA4B-83EF-96E6D3254657}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49703896-377D-AA4B-83EF-96E6D3254657}"/>
   </bookViews>
   <sheets>
     <sheet name="data_collected" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>source Of Variation</t>
   </si>
@@ -90,10 +90,13 @@
     <t>200 W</t>
   </si>
   <si>
-    <t>Etching Rate</t>
-  </si>
-  <si>
     <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>Power_W</t>
+  </si>
+  <si>
+    <t>Etching_Rate</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,137 +496,137 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>160</v>
       </c>
       <c r="B2" s="3">
         <v>5.43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>180</v>
       </c>
       <c r="B3" s="3">
         <v>6.24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>200</v>
       </c>
       <c r="B4" s="3">
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>160</v>
       </c>
       <c r="B5" s="3">
         <v>5.71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>180</v>
       </c>
       <c r="B6" s="3">
         <v>6.71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>200</v>
       </c>
       <c r="B7" s="3">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>160</v>
       </c>
       <c r="B8" s="3">
         <v>6.22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>180</v>
       </c>
       <c r="B9" s="3">
         <v>5.98</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>200</v>
       </c>
       <c r="B10" s="3">
         <v>7.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>160</v>
       </c>
       <c r="B11" s="3">
         <v>6.01</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>180</v>
       </c>
       <c r="B12" s="3">
         <v>5.66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>200</v>
       </c>
       <c r="B13" s="3">
         <v>8.15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>160</v>
       </c>
       <c r="B14" s="3">
         <v>5.59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>180</v>
       </c>
       <c r="B15" s="3">
         <v>6.6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>200</v>
       </c>
       <c r="B16" s="3">
         <v>7.55</v>
@@ -632,6 +635,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Classified - Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -643,20 +650,20 @@
       <selection activeCell="I14" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
@@ -695,10 +702,10 @@
         <v>35.777142857142856</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
@@ -715,7 +722,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,7 +736,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
@@ -747,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
@@ -775,7 +782,7 @@
         <v>5.7919999999999998</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
@@ -803,7 +810,7 @@
         <v>6.2379999999999995</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
@@ -831,7 +838,7 @@
         <v>8.3179999999999996</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -847,7 +854,7 @@
         <v>6.7826666666666666</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -866,5 +873,9 @@
     <mergeCell ref="E13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Classified - Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>